--- a/biology/Origine et évolution du vivant/Sphenacodontoidea/Sphenacodontoidea.xlsx
+++ b/biology/Origine et évolution du vivant/Sphenacodontoidea/Sphenacodontoidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sphénacodontoïdes
 Les sphénacodontoïdes (Sphenacodontoidea) forment un clade de synapsides sphénacodontes défini pour inclure le dernier ancêtre commun le plus récent des sphénacodontidés et des thérapsides, le groupe ancestral aux mammifères.
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le taxon Sphenacodontoidea est créé en 1997 par les paléontologues canadiens Michel Laurin et Robert R. Reisz (en)[2]. À noter que la terminaison « -oidea » est habituellement celle d'une super-famille alors que ce taxon n'est pas un.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le taxon Sphenacodontoidea est créé en 1997 par les paléontologues canadiens Michel Laurin et Robert R. Reisz (en). À noter que la terminaison « -oidea » est habituellement celle d'une super-famille alors que ce taxon n'est pas un.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les sphénacodontoïdes sont définis par un certain nombre de synapomorphies dans les proportions des os du crâne et dans les dents[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les sphénacodontoïdes sont définis par un certain nombre de synapomorphies dans les proportions des os du crâne et dans les dents :
 le processus orbital frontal s'étend loin latéralement (il est peu développé, voire absent, chez les autres synapsides) ;
 présence d'une profonde cavité préfrontale (près du bord antérodorsal de l'orbite) ;
 perte des dents vomériennes (le vomer comporte un galuchat de denticules chez les autres synapsides).</t>
@@ -576,9 +592,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Phylogénie des Sphenacodontoidea selon Fröbisch et al. (2011) et Benson (2012)[3],[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Phylogénie des Sphenacodontoidea selon Fröbisch et al. (2011) et Benson (2012), :
 Classe Synapsida
 Clade Sphenacodontia
 Clade Sphenacodontoidea
